--- a/data/mall-cloud-alibaba/mall-gateway_structure.xlsx
+++ b/data/mall-cloud-alibaba/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="80">
   <si>
     <t>Class Name</t>
   </si>
@@ -168,34 +168,37 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>tokenHead</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
     <t>tokenHeader</t>
   </si>
   <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>tokenHead</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>REDIS_KEY_TOKEN</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_TOKEN</t>
-  </si>
-  <si>
-    <t>ignoreUrlsConfig</t>
+    <t>jwtTokenUtil</t>
   </si>
   <si>
     <t>stringRedisTemplate</t>
@@ -204,9 +207,6 @@
     <t>org.springframework.data.redis.core.StringRedisTemplate</t>
   </si>
   <si>
-    <t>jwtTokenUtil</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>16</t>
@@ -1159,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1192,21 +1189,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1214,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>77</v>
@@ -1222,21 +1219,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>77</v>
@@ -1244,56 +1241,12 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s" s="0">
         <v>77</v>
       </c>
     </row>
@@ -1376,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1384,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1432,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1440,7 +1393,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>14</v>
@@ -1454,13 +1407,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1468,7 +1421,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>14</v>
@@ -1488,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1502,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1510,13 +1463,13 @@
         <v>34</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
